--- a/Articulos/Thesaurus.xlsx
+++ b/Articulos/Thesaurus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maryu\Desktop\Nueva carpeta\ADSO-2694679\2024\12-Sesion-17-08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENA\Desktop\Investigacion\Articulos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBCA222-B41E-4D5F-8D60-FFC034EF5453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E518AE-6E2F-445D-9125-021A251C1B00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CBF535E4-71E5-47C2-9BF5-65E8EF8C5F03}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{CBF535E4-71E5-47C2-9BF5-65E8EF8C5F03}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -625,7 +616,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -642,7 +633,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -940,25 +931,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8697ED96-0B89-4A16-B6F4-FE6B83B12F2F}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="66" zoomScaleNormal="115" zoomScaleSheetLayoutView="66" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="98" zoomScaleNormal="115" zoomScaleSheetLayoutView="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="43.5546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="69" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -990,7 +981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -1020,7 +1011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1052,7 +1043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1084,7 +1075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1116,7 +1107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1148,7 +1139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1180,7 +1171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1212,7 +1203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1244,7 +1235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1276,7 +1267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1308,7 +1299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1340,7 +1331,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1372,7 +1363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1404,7 +1395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -1436,7 +1427,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -1468,7 +1459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -1500,7 +1491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -1532,7 +1523,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -1564,7 +1555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -1596,7 +1587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -1628,7 +1619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -1642,7 +1633,7 @@
       <c r="I22" s="16"/>
       <c r="J22" s="18"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -1654,7 +1645,7 @@
       <c r="I23" s="16"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1666,7 +1657,7 @@
       <c r="I24" s="21"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1678,7 +1669,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1690,7 +1681,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1702,7 +1693,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1714,7 +1705,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1726,7 +1717,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1738,7 +1729,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1750,7 +1741,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1762,7 +1753,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1774,7 +1765,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1786,7 +1777,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1798,7 +1789,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
@@ -1810,7 +1801,7 @@
       <c r="I36" s="28"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -1822,7 +1813,7 @@
       <c r="I37" s="28"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1834,7 +1825,7 @@
       <c r="I38" s="28"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -1846,9 +1837,9 @@
       <c r="I39" s="28"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
-      <c r="B40" s="27"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="27"/>
       <c r="D40" s="9"/>
       <c r="E40" s="28"/>
@@ -1858,8 +1849,7 @@
       <c r="I40" s="28"/>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
       <c r="D41" s="9"/>
@@ -1870,7 +1860,7 @@
       <c r="I41" s="28"/>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -1882,7 +1872,7 @@
       <c r="I42" s="28"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -1894,7 +1884,7 @@
       <c r="I43" s="28"/>
       <c r="J43" s="9"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -1906,7 +1896,7 @@
       <c r="I44" s="28"/>
       <c r="J44" s="9"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
@@ -1918,7 +1908,7 @@
       <c r="I45" s="28"/>
       <c r="J45" s="9"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -1930,7 +1920,7 @@
       <c r="I46" s="28"/>
       <c r="J46" s="9"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -1942,7 +1932,7 @@
       <c r="I47" s="28"/>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -1954,7 +1944,7 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H49" s="15"/>
     </row>
   </sheetData>
